--- a/biology/Histoire de la zoologie et de la botanique/Population_fantôme/Population_fantôme.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Population_fantôme/Population_fantôme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Population_fant%C3%B4me</t>
+          <t>Population_fantôme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une population fantôme, en génétique, est une population éteinte dont l'existence a été inférée par des études génétiques portant sur les populations existantes : même si la population disparue ne peut être associée à aucun fossile connu, sa contribution génétique a été isolée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Population_fant%C3%B4me</t>
+          <t>Population_fantôme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Exemples chez l'être humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Une population fantôme a contribué pour 8% au patrimoine génétique des Yorubas[1] mais aussi des Khoïsans (4%), des Pygmées Mbuti (4.3%) et des Mandenka (5.8%)[2]
-L'Homme de Denisova a d'abord été identifié par la génétique (donc en tant que population fantôme) avant que des restes soient découverts en Sibérie[3]
-Une population fantôme apparentée aux mélanésiens a contribué au patrimoine génétique des indigènes de l'amazonie[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une population fantôme a contribué pour 8% au patrimoine génétique des Yorubas mais aussi des Khoïsans (4%), des Pygmées Mbuti (4.3%) et des Mandenka (5.8%)
+L'Homme de Denisova a d'abord été identifié par la génétique (donc en tant que population fantôme) avant que des restes soient découverts en Sibérie
+Une population fantôme apparentée aux mélanésiens a contribué au patrimoine génétique des indigènes de l'amazonie.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Population_fant%C3%B4me</t>
+          <t>Population_fantôme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Chez les animaux domestiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Basenji possède un héritage génétique d'une population éteinte de loups africains[5],[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Basenji possède un héritage génétique d'une population éteinte de loups africains.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Population_fant%C3%B4me</t>
+          <t>Population_fantôme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Chez des animaux sauvages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>le Bison de Higgs</t>
         </is>
